--- a/data/trans_orig/P56S_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P56S_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6978EA97-74B8-490D-8A8E-A2979EA42AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9D60A1C-D062-4944-A4FA-0E3ECCFFCDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{84DD4E72-67C2-45EF-A83C-22B4A4858DAE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2EAE28A9-0FF3-4B7F-9A71-F3648E5FFFA7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="621">
   <si>
     <t>Población según si tienen dificultades y necesitan ayuda en las actividades básicas de la vida diaria en 2007 (Tasa respuesta: 2,12%)</t>
   </si>
@@ -1286,628 +1286,622 @@
     <t>Población según si tienen dificultades y necesitan ayuda en las actividades básicas de la vida diaria en 2023 (Tasa respuesta: 7,85%)</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
   </si>
   <si>
     <t>6,76%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
   </si>
 </sst>
 </file>
@@ -2319,7 +2313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E98FCC1-AC1A-45D0-8AC4-958688BA7477}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3F637E-23BF-4910-81EF-E3B62B2B942F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4276,7 +4270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC83F5E6-D97A-461F-98CD-6151034FA49F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E65A7E7-77F7-466F-971F-B29A966E36E5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6251,7 +6245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251DC86B-57C5-4400-95D6-844036ACF8D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630D3DDF-AB26-4F46-8315-E9FE5F7DA376}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8226,7 +8220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC5B7F4-AAC2-443B-A2C6-AD0D285EBC05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEABFB9-7101-4A13-A35D-C27E7B13F0B0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8347,46 +8341,46 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>1974</v>
+        <v>1825</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>7574</v>
+        <v>6816</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>9548</v>
+        <v>8641</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>420</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>421</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8398,46 +8392,46 @@
         <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>5751</v>
+        <v>5275</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H5" s="7">
         <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>15209</v>
+        <v>13777</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
       </c>
       <c r="N5" s="7">
-        <v>20960</v>
+        <v>19051</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>58</v>
+        <v>430</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8449,46 +8443,46 @@
         <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>12132</v>
+        <v>11241</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H6" s="7">
         <v>89</v>
       </c>
       <c r="I6" s="7">
-        <v>46478</v>
+        <v>41749</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M6" s="7">
         <v>107</v>
       </c>
       <c r="N6" s="7">
-        <v>58609</v>
+        <v>52990</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8500,46 +8494,46 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>1423</v>
+        <v>1367</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>1724</v>
+        <v>1553</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>244</v>
+        <v>443</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>3147</v>
+        <v>2920</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>376</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8551,46 +8545,46 @@
         <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>2634</v>
+        <v>2436</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>446</v>
+        <v>392</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="H8" s="7">
         <v>29</v>
       </c>
       <c r="I8" s="7">
-        <v>17931</v>
+        <v>14759</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>291</v>
+        <v>452</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>448</v>
+        <v>57</v>
       </c>
       <c r="M8" s="7">
         <v>33</v>
       </c>
       <c r="N8" s="7">
-        <v>20566</v>
+        <v>17195</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8602,46 +8596,46 @@
         <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>4031</v>
+        <v>3727</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>452</v>
+        <v>245</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>146</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="H9" s="7">
         <v>19</v>
       </c>
       <c r="I9" s="7">
-        <v>9722</v>
+        <v>8619</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>286</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="M9" s="7">
         <v>25</v>
       </c>
       <c r="N9" s="7">
-        <v>13752</v>
+        <v>12346</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>456</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8653,46 +8647,46 @@
         <v>68</v>
       </c>
       <c r="D10" s="7">
-        <v>42834</v>
+        <v>39407</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H10" s="7">
         <v>208</v>
       </c>
       <c r="I10" s="7">
-        <v>118030</v>
+        <v>104973</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M10" s="7">
         <v>276</v>
       </c>
       <c r="N10" s="7">
-        <v>160864</v>
+        <v>144380</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8704,46 +8698,46 @@
         <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>2743</v>
+        <v>2627</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
       </c>
       <c r="I11" s="7">
-        <v>9153</v>
+        <v>8315</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M11" s="7">
         <v>23</v>
       </c>
       <c r="N11" s="7">
-        <v>11896</v>
+        <v>10942</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8755,7 +8749,7 @@
         <v>116</v>
       </c>
       <c r="D12" s="7">
-        <v>73522</v>
+        <v>67905</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>63</v>
@@ -8770,7 +8764,7 @@
         <v>408</v>
       </c>
       <c r="I12" s="7">
-        <v>225822</v>
+        <v>200561</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>63</v>
@@ -8785,7 +8779,7 @@
         <v>524</v>
       </c>
       <c r="N12" s="7">
-        <v>299343</v>
+        <v>268466</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>63</v>
@@ -8823,31 +8817,31 @@
         <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>1883</v>
+        <v>1770</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>477</v>
+        <v>38</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>1883</v>
+        <v>1771</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>224</v>
+        <v>480</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8859,46 +8853,46 @@
         <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>2803</v>
+        <v>2621</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>3057</v>
+        <v>2703</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>249</v>
+        <v>486</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
       </c>
       <c r="N14" s="7">
-        <v>5860</v>
+        <v>5324</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8910,46 +8904,46 @@
         <v>5</v>
       </c>
       <c r="D15" s="7">
-        <v>2959</v>
+        <v>2718</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="H15" s="7">
         <v>10</v>
       </c>
       <c r="I15" s="7">
-        <v>5081</v>
+        <v>4566</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>492</v>
+        <v>37</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M15" s="7">
         <v>15</v>
       </c>
       <c r="N15" s="7">
-        <v>8040</v>
+        <v>7284</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8961,28 +8955,28 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>705</v>
+        <v>593</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>1984</v>
+        <v>1733</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>500</v>
+        <v>157</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>501</v>
@@ -8991,7 +8985,7 @@
         <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>2689</v>
+        <v>2326</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>502</v>
@@ -9012,46 +9006,46 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>510</v>
+        <v>464</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>1889</v>
+        <v>1717</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>2399</v>
+        <v>2181</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>446</v>
+        <v>509</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>511</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9063,46 +9057,46 @@
         <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>1881</v>
+        <v>1756</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>512</v>
+        <v>230</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>513</v>
+        <v>418</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>5157</v>
+        <v>4470</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="M18" s="7">
         <v>13</v>
       </c>
       <c r="N18" s="7">
-        <v>7037</v>
+        <v>6226</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>518</v>
+        <v>471</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>236</v>
+        <v>514</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9114,46 +9108,46 @@
         <v>26</v>
       </c>
       <c r="D19" s="7">
-        <v>18533</v>
+        <v>17100</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>184</v>
+        <v>516</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
       </c>
       <c r="I19" s="7">
-        <v>26188</v>
+        <v>23541</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M19" s="7">
         <v>77</v>
       </c>
       <c r="N19" s="7">
-        <v>44721</v>
+        <v>40642</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9165,46 +9159,46 @@
         <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>2016</v>
+        <v>1850</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>1740</v>
+        <v>1574</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>489</v>
+        <v>528</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>531</v>
+        <v>371</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>431</v>
+        <v>529</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
       </c>
       <c r="N20" s="7">
-        <v>3756</v>
+        <v>3423</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>167</v>
+        <v>530</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9216,7 +9210,7 @@
         <v>43</v>
       </c>
       <c r="D21" s="7">
-        <v>29407</v>
+        <v>27102</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>63</v>
@@ -9231,7 +9225,7 @@
         <v>90</v>
       </c>
       <c r="I21" s="7">
-        <v>46979</v>
+        <v>42074</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>63</v>
@@ -9246,7 +9240,7 @@
         <v>133</v>
       </c>
       <c r="N21" s="7">
-        <v>76386</v>
+        <v>69176</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>63</v>
@@ -9293,22 +9287,22 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9335,31 +9329,31 @@
         <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>539</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9386,31 +9380,31 @@
         <v>2</v>
       </c>
       <c r="I24" s="7">
-        <v>1084</v>
+        <v>971</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
       </c>
       <c r="N24" s="7">
-        <v>1084</v>
+        <v>971</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9446,22 +9440,22 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9473,46 +9467,46 @@
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>722</v>
+        <v>617</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>1137</v>
+        <v>1000</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9548,22 +9542,22 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="M27" s="7">
-        <v>0</v>
-      </c>
-      <c r="N27" s="7">
-        <v>0</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9575,46 +9569,46 @@
         <v>8</v>
       </c>
       <c r="D28" s="7">
-        <v>5154</v>
+        <v>4783</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
       </c>
       <c r="I28" s="7">
-        <v>3222</v>
+        <v>2932</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="M28" s="7">
         <v>14</v>
       </c>
       <c r="N28" s="7">
-        <v>8376</v>
+        <v>7715</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9626,46 +9620,46 @@
         <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>1139</v>
+        <v>1076</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
       </c>
       <c r="I29" s="7">
-        <v>1866</v>
+        <v>1694</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
       </c>
       <c r="N29" s="7">
-        <v>3004</v>
+        <v>2770</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9677,7 +9671,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="7">
-        <v>7015</v>
+        <v>6476</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>63</v>
@@ -9692,7 +9686,7 @@
         <v>14</v>
       </c>
       <c r="I30" s="7">
-        <v>7067</v>
+        <v>6469</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>63</v>
@@ -9707,7 +9701,7 @@
         <v>25</v>
       </c>
       <c r="N30" s="7">
-        <v>14082</v>
+        <v>12945</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>63</v>
@@ -9730,43 +9724,43 @@
         <v>3</v>
       </c>
       <c r="D31" s="7">
-        <v>1974</v>
+        <v>1825</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>568</v>
       </c>
       <c r="H31" s="7">
         <v>16</v>
       </c>
       <c r="I31" s="7">
-        <v>9458</v>
+        <v>8586</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>571</v>
       </c>
       <c r="M31" s="7">
         <v>19</v>
       </c>
       <c r="N31" s="7">
-        <v>11432</v>
+        <v>10411</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>254</v>
+        <v>570</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>532</v>
+        <v>571</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>572</v>
@@ -9781,7 +9775,7 @@
         <v>14</v>
       </c>
       <c r="D32" s="7">
-        <v>8553</v>
+        <v>7896</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>573</v>
@@ -9796,7 +9790,7 @@
         <v>34</v>
       </c>
       <c r="I32" s="7">
-        <v>18748</v>
+        <v>16970</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>575</v>
@@ -9805,16 +9799,16 @@
         <v>576</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>577</v>
+        <v>323</v>
       </c>
       <c r="M32" s="7">
         <v>48</v>
       </c>
       <c r="N32" s="7">
-        <v>27301</v>
+        <v>24865</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>428</v>
+        <v>577</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>578</v>
@@ -9832,7 +9826,7 @@
         <v>23</v>
       </c>
       <c r="D33" s="7">
-        <v>15091</v>
+        <v>13960</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>580</v>
@@ -9847,7 +9841,7 @@
         <v>101</v>
       </c>
       <c r="I33" s="7">
-        <v>52642</v>
+        <v>47286</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>583</v>
@@ -9862,16 +9856,16 @@
         <v>124</v>
       </c>
       <c r="N33" s="7">
-        <v>67733</v>
+        <v>61245</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>496</v>
+        <v>586</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9883,46 +9877,46 @@
         <v>3</v>
       </c>
       <c r="D34" s="7">
-        <v>2128</v>
+        <v>1960</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>439</v>
+        <v>126</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>588</v>
+        <v>138</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="H34" s="7">
         <v>8</v>
       </c>
       <c r="I34" s="7">
-        <v>3708</v>
+        <v>3286</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>11</v>
+      </c>
+      <c r="N34" s="7">
+        <v>5246</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="M34" s="7">
-        <v>11</v>
-      </c>
-      <c r="N34" s="7">
-        <v>5836</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>594</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9934,46 +9928,46 @@
         <v>6</v>
       </c>
       <c r="D35" s="7">
-        <v>3866</v>
+        <v>3518</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>502</v>
+        <v>374</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>221</v>
+        <v>93</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H35" s="7">
         <v>34</v>
       </c>
       <c r="I35" s="7">
-        <v>20235</v>
+        <v>16858</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>189</v>
+        <v>596</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>597</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>598</v>
+        <v>131</v>
       </c>
       <c r="M35" s="7">
         <v>40</v>
       </c>
       <c r="N35" s="7">
-        <v>24101</v>
+        <v>20376</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9985,46 +9979,46 @@
         <v>9</v>
       </c>
       <c r="D36" s="7">
-        <v>5911</v>
+        <v>5482</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>602</v>
+        <v>291</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>415</v>
+        <v>600</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H36" s="7">
         <v>29</v>
       </c>
       <c r="I36" s="7">
-        <v>14878</v>
+        <v>13090</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>605</v>
+        <v>449</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>606</v>
+        <v>176</v>
       </c>
       <c r="M36" s="7">
         <v>38</v>
       </c>
       <c r="N36" s="7">
-        <v>20790</v>
+        <v>18572</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>607</v>
+        <v>512</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>32</v>
+        <v>603</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>608</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10036,46 +10030,46 @@
         <v>102</v>
       </c>
       <c r="D37" s="7">
-        <v>66521</v>
+        <v>61290</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="H37" s="7">
         <v>265</v>
       </c>
       <c r="I37" s="7">
-        <v>147439</v>
+        <v>131446</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M37" s="7">
         <v>367</v>
       </c>
       <c r="N37" s="7">
-        <v>213961</v>
+        <v>192736</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10087,46 +10081,46 @@
         <v>10</v>
       </c>
       <c r="D38" s="7">
-        <v>5898</v>
+        <v>5552</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>571</v>
+        <v>613</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>188</v>
+        <v>615</v>
       </c>
       <c r="H38" s="7">
         <v>25</v>
       </c>
       <c r="I38" s="7">
-        <v>12759</v>
+        <v>11582</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>187</v>
+        <v>617</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="M38" s="7">
         <v>35</v>
       </c>
       <c r="N38" s="7">
-        <v>18657</v>
+        <v>17135</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>108</v>
+        <v>576</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10138,7 +10132,7 @@
         <v>170</v>
       </c>
       <c r="D39" s="7">
-        <v>109944</v>
+        <v>101483</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>63</v>
@@ -10153,7 +10147,7 @@
         <v>512</v>
       </c>
       <c r="I39" s="7">
-        <v>279867</v>
+        <v>249104</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>63</v>
@@ -10168,7 +10162,7 @@
         <v>682</v>
       </c>
       <c r="N39" s="7">
-        <v>389811</v>
+        <v>350587</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>63</v>
